--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR13_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR13_호남선.xlsx
@@ -45,6 +45,9 @@
     <t>NBEATS</t>
   </si>
   <si>
+    <t>NHITS</t>
+  </si>
+  <si>
     <t>NBEATSx</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>MLP</t>
-  </si>
-  <si>
-    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>126286279704.3232</v>
+        <v>126281912661.3346</v>
       </c>
       <c r="C3">
-        <v>355367.8090434237</v>
+        <v>355361.6645916307</v>
       </c>
       <c r="D3">
-        <v>0.02919559041521566</v>
+        <v>0.02919292731928931</v>
       </c>
       <c r="E3">
-        <v>150003.046875</v>
+        <v>149988.0104166667</v>
       </c>
       <c r="F3">
-        <v>0.09368777424030557</v>
+        <v>0.09367389392950758</v>
       </c>
       <c r="G3">
-        <v>50642.75</v>
+        <v>50568.3125</v>
       </c>
       <c r="H3">
-        <v>0.04997139460577546</v>
+        <v>0.04989794534952227</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>141961177770.4743</v>
+        <v>126286279704.3232</v>
       </c>
       <c r="C4">
-        <v>376777.3583569935</v>
+        <v>355367.8090434237</v>
       </c>
       <c r="D4">
-        <v>0.04458534825045399</v>
+        <v>0.02919559041521566</v>
       </c>
       <c r="E4">
-        <v>218715.484375</v>
+        <v>150003.046875</v>
       </c>
       <c r="F4">
-        <v>0.1625352174926701</v>
+        <v>0.09368777424030557</v>
       </c>
       <c r="G4">
-        <v>156189.40625</v>
+        <v>50642.75</v>
       </c>
       <c r="H4">
-        <v>0.1568517882781932</v>
+        <v>0.04997139460577546</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>156749332063.5423</v>
+        <v>141961177770.4743</v>
       </c>
       <c r="C5">
-        <v>395915.8143640417</v>
+        <v>376777.3583569935</v>
       </c>
       <c r="D5">
-        <v>0.05751209653095198</v>
+        <v>0.04458534825045399</v>
       </c>
       <c r="E5">
-        <v>269795.9791666667</v>
+        <v>218715.484375</v>
       </c>
       <c r="F5">
-        <v>0.2125340122295028</v>
+        <v>0.1625352174926701</v>
       </c>
       <c r="G5">
-        <v>186042.3125</v>
+        <v>156189.40625</v>
       </c>
       <c r="H5">
-        <v>0.18022077139994</v>
+        <v>0.1568517882781932</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>180771375096.2233</v>
+        <v>156749332063.5423</v>
       </c>
       <c r="C6">
-        <v>425172.1711215626</v>
+        <v>395915.8143640417</v>
       </c>
       <c r="D6">
-        <v>0.06580130937365371</v>
+        <v>0.05751209653095198</v>
       </c>
       <c r="E6">
-        <v>285768.875</v>
+        <v>269795.9791666667</v>
       </c>
       <c r="F6">
-        <v>0.224389987144375</v>
+        <v>0.2125340122295028</v>
       </c>
       <c r="G6">
-        <v>201220.34375</v>
+        <v>186042.3125</v>
       </c>
       <c r="H6">
-        <v>0.1964688552309899</v>
+        <v>0.18022077139994</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>176678268088.3696</v>
+        <v>180771375096.2233</v>
       </c>
       <c r="C7">
-        <v>420331.140992872</v>
+        <v>425172.1711215626</v>
       </c>
       <c r="D7">
-        <v>0.06406356145149396</v>
+        <v>0.06580130937365371</v>
       </c>
       <c r="E7">
-        <v>283937.209193272</v>
+        <v>285768.875</v>
       </c>
       <c r="F7">
-        <v>0.2229626581454235</v>
+        <v>0.224389987144375</v>
       </c>
       <c r="G7">
-        <v>204166.3895972222</v>
+        <v>201220.34375</v>
       </c>
       <c r="H7">
-        <v>0.1993192694011627</v>
+        <v>0.1964688552309899</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>180897403874.4905</v>
+        <v>176678268088.3696</v>
       </c>
       <c r="C8">
-        <v>425320.3544088744</v>
+        <v>420331.140992872</v>
       </c>
       <c r="D8">
-        <v>0.06650765168467339</v>
+        <v>0.06406356145149396</v>
       </c>
       <c r="E8">
-        <v>289169.8081584744</v>
+        <v>283937.209193272</v>
       </c>
       <c r="F8">
-        <v>0.2276346615189248</v>
+        <v>0.2229626581454235</v>
       </c>
       <c r="G8">
-        <v>201719.8640882502</v>
+        <v>204166.3895972222</v>
       </c>
       <c r="H8">
-        <v>0.1969327387110874</v>
+        <v>0.1993192694011627</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>169633414986.8115</v>
+        <v>180897403874.4905</v>
       </c>
       <c r="C9">
-        <v>411865.7730217595</v>
+        <v>425320.3544088744</v>
       </c>
       <c r="D9">
-        <v>0.06367236919696563</v>
+        <v>0.06650765168467339</v>
       </c>
       <c r="E9">
-        <v>283529.0364583333</v>
+        <v>289169.8081584744</v>
       </c>
       <c r="F9">
-        <v>0.224225103662386</v>
+        <v>0.2276346615189248</v>
       </c>
       <c r="G9">
-        <v>217413.8125</v>
+        <v>201719.8640882502</v>
       </c>
       <c r="H9">
-        <v>0.2037474366235397</v>
+        <v>0.1969327387110874</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>178754778329.8654</v>
+        <v>169633414986.8115</v>
       </c>
       <c r="C10">
-        <v>422794.0140657924</v>
+        <v>411865.7730217595</v>
       </c>
       <c r="D10">
-        <v>0.06535047721850408</v>
+        <v>0.06367236919696563</v>
       </c>
       <c r="E10">
-        <v>287425.7151292611</v>
+        <v>283529.0364583333</v>
       </c>
       <c r="F10">
-        <v>0.2254904858954215</v>
+        <v>0.224225103662386</v>
       </c>
       <c r="G10">
-        <v>209418.6246640818</v>
+        <v>217413.8125</v>
       </c>
       <c r="H10">
-        <v>0.2034201089862199</v>
+        <v>0.2037474366235397</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>180157452767.0287</v>
+        <v>178754778329.8654</v>
       </c>
       <c r="C11">
-        <v>424449.5880160902</v>
+        <v>422794.0140657924</v>
       </c>
       <c r="D11">
-        <v>0.0676217820532117</v>
+        <v>0.06535047721850408</v>
       </c>
       <c r="E11">
-        <v>293814.9583333333</v>
+        <v>287425.7151292611</v>
       </c>
       <c r="F11">
-        <v>0.232823977458846</v>
+        <v>0.2254904858954215</v>
       </c>
       <c r="G11">
-        <v>205211.84375</v>
+        <v>209418.6246640818</v>
       </c>
       <c r="H11">
-        <v>0.2036711145741462</v>
+        <v>0.2034201089862199</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>182666400941.8076</v>
+        <v>180157452767.0287</v>
       </c>
       <c r="C12">
-        <v>427394.900463035</v>
+        <v>424449.5880160902</v>
       </c>
       <c r="D12">
-        <v>0.07368792404626667</v>
+        <v>0.0676217820532117</v>
       </c>
       <c r="E12">
-        <v>308473.828125</v>
+        <v>293814.9583333333</v>
       </c>
       <c r="F12">
-        <v>0.2483815415653515</v>
+        <v>0.232823977458846</v>
       </c>
       <c r="G12">
-        <v>225860.15625</v>
+        <v>205211.84375</v>
       </c>
       <c r="H12">
-        <v>0.227777946986714</v>
+        <v>0.2036711145741462</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>189214122534.2158</v>
+        <v>182666400941.8076</v>
       </c>
       <c r="C13">
-        <v>434987.496986081</v>
+        <v>427394.900463035</v>
       </c>
       <c r="D13">
-        <v>0.07625729446620752</v>
+        <v>0.07368792404626667</v>
       </c>
       <c r="E13">
-        <v>311291.828125</v>
+        <v>308473.828125</v>
       </c>
       <c r="F13">
-        <v>0.2503736767519039</v>
+        <v>0.2483815415653515</v>
       </c>
       <c r="G13">
-        <v>227767.5</v>
+        <v>225860.15625</v>
       </c>
       <c r="H13">
-        <v>0.2289685948800885</v>
+        <v>0.227777946986714</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>8929567786635.596</v>
+        <v>189214122534.2158</v>
       </c>
       <c r="C14">
-        <v>2988238.241277893</v>
+        <v>434987.496986081</v>
       </c>
       <c r="D14">
-        <v>6.225415847599698</v>
+        <v>0.07625729446620752</v>
       </c>
       <c r="E14">
-        <v>2444569.41015625</v>
+        <v>311291.828125</v>
       </c>
       <c r="F14">
-        <v>2.132107949242459</v>
+        <v>0.2503736767519039</v>
       </c>
       <c r="G14">
-        <v>1831747.25</v>
+        <v>227767.5</v>
       </c>
       <c r="H14">
-        <v>1.820378138953791</v>
+        <v>0.2289685948800885</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>48192400668242.5</v>
+        <v>8929567786635.596</v>
       </c>
       <c r="C15">
-        <v>6942074.66599449</v>
+        <v>2988238.241277893</v>
       </c>
       <c r="D15">
-        <v>44.68487788685582</v>
+        <v>6.225415847599698</v>
       </c>
       <c r="E15">
-        <v>5646922.973958333</v>
+        <v>2444569.41015625</v>
       </c>
       <c r="F15">
-        <v>5.308926526748199</v>
+        <v>2.132107949242459</v>
       </c>
       <c r="G15">
-        <v>6425161.25</v>
+        <v>1831747.25</v>
       </c>
       <c r="H15">
-        <v>4.517003152901893</v>
+        <v>1.820378138953791</v>
       </c>
     </row>
   </sheetData>
@@ -927,43 +927,43 @@
         <v>1009081.25</v>
       </c>
       <c r="E2">
+        <v>962796.0625</v>
+      </c>
+      <c r="F2">
         <v>962785.75</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1026253.75</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>882205.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>840861.125</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>837536.7219404761</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>842351.8643017001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>831866.0625</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>831488.1121378717</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>809645.125</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>849592.1875</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>865792.625</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2630750</v>
-      </c>
-      <c r="Q2">
-        <v>8562825</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -980,43 +980,43 @@
         <v>978737.6875</v>
       </c>
       <c r="E3">
+        <v>962792.875</v>
+      </c>
+      <c r="F3">
         <v>962783.125</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>961786.1875</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>952043</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>857550.1875</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>872341.5373333334</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>862406.5846860122</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>912445</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>871778.6249303562</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>872957.1875</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>894116.5</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>869326.625</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-3923400.75</v>
-      </c>
-      <c r="Q3">
-        <v>9231644</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1033,43 +1033,43 @@
         <v>958222.0625</v>
       </c>
       <c r="E4">
+        <v>962786.375</v>
+      </c>
+      <c r="F4">
         <v>962784.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>923466.375</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>836321.75</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>726408.125</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>748849.6008333334</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>746107.6409129272</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>825752.125</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>775592.6419661848</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>784021.3125</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>774570.6875</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>762515.5625</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-1676870.75</v>
-      </c>
-      <c r="Q4">
-        <v>10658459</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1086,43 +1086,43 @@
         <v>927141.9375</v>
       </c>
       <c r="E5">
+        <v>962785.8125</v>
+      </c>
+      <c r="F5">
         <v>962786.75</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>907128.1875</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>815743</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>712668.375</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>743750.0957124819</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>730462.4923763644</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>800550.875</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>852794.8423079726</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>756014.9375</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>733983</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>737909.6875</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1410462.625</v>
-      </c>
-      <c r="Q5">
-        <v>10145599</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1139,43 +1139,43 @@
         <v>931413.8125</v>
       </c>
       <c r="E6">
+        <v>962793.8125</v>
+      </c>
+      <c r="F6">
         <v>962784.9375</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>835932.3125</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>790585.5625</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>803041.6875</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>801388.8376468257</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>803712.0131875655</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>776397.375</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>774889.33942124</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>718953.1875</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>717506.8125</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>712596.1875</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5319021</v>
-      </c>
-      <c r="Q6">
-        <v>6797832.5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,43 +1192,43 @@
         <v>967818.9375</v>
       </c>
       <c r="E7">
+        <v>962797.8125</v>
+      </c>
+      <c r="F7">
         <v>962790.1875</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>776078.4375</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>866169.125</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>891492</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>887587.8216666668</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>893770.8443177267</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>882015.8125</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>870761.3333335741</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>860941.25</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>847484.625</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>854193</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3050098.5</v>
-      </c>
-      <c r="Q7">
-        <v>4220365</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1245,43 +1245,43 @@
         <v>1028504.1875</v>
       </c>
       <c r="E8">
+        <v>962793.8125</v>
+      </c>
+      <c r="F8">
         <v>962790.1875</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>903953.1875</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>896683.125</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>947253.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>927688.1536111112</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>905244.5152314665</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>857667.1875</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>878834.7784454646</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>902821.25</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>835698.375</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>857634.5625</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-376629.65625</v>
-      </c>
-      <c r="Q8">
-        <v>3113464.25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1298,43 +1298,43 @@
         <v>1056136.5</v>
       </c>
       <c r="E9">
+        <v>962799.8125</v>
+      </c>
+      <c r="F9">
         <v>962786.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1150133.5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>855954.25</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>843529.625</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>839290.38315873</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>841860.2586359341</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>920399.6875</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>804054.977597915</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>836988.9375</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>859111.75</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>875181.875</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>6094793.5</v>
-      </c>
-      <c r="Q9">
-        <v>2029073.125</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1351,43 +1351,43 @@
         <v>1046735.875</v>
       </c>
       <c r="E10">
+        <v>962831.5625</v>
+      </c>
+      <c r="F10">
         <v>962786.8125</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1147448.75</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>864678.4375</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>837969.0625</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>837229.0744404763</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>836987.69307371</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>845182.625</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>795016.9722263718</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>858358.375</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>851674.875</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>864611.875</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2637635.5</v>
-      </c>
-      <c r="Q10">
-        <v>1002203.4375</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1404,43 +1404,43 @@
         <v>1046905.5625</v>
       </c>
       <c r="E11">
+        <v>962856.8125</v>
+      </c>
+      <c r="F11">
         <v>962787.3125</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>812536.875</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>724408.375</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>803041.6875</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>801388.8376468257</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>803712.0131875655</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>732264.5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>774889.33942124</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>772561.1875</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>713780.8125</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>690959.3125</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>105432.109375</v>
-      </c>
-      <c r="Q11">
-        <v>1774567.25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1457,43 +1457,43 @@
         <v>1041554</v>
       </c>
       <c r="E12">
+        <v>962858.25</v>
+      </c>
+      <c r="F12">
         <v>962787.625</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>797761</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>831837.375</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>794961.0625</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>784445.3512500002</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>752330.6891136256</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>792770.75</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>851745.4844343032</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>836809.5625</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>795257.9375</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>778562.4375</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>201441.25</v>
-      </c>
-      <c r="Q12">
-        <v>8972731</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1510,43 +1510,43 @@
         <v>1088453.5</v>
       </c>
       <c r="E13">
+        <v>962866.125</v>
+      </c>
+      <c r="F13">
         <v>962787.875</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>843127.625</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>771790.75</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>837969.0625</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>837229.0744404763</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>836987.69307371</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>746311.5625</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>795016.9722263718</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>790120.1875</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>751508.5</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>721186.3125</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3384366</v>
-      </c>
-      <c r="Q13">
-        <v>14465033</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1563,43 +1563,43 @@
         <v>1122139.5</v>
       </c>
       <c r="E14">
+        <v>962908.0625</v>
+      </c>
+      <c r="F14">
         <v>962788.1875</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>907188.375</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>766695.0625</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>683557.6875</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>683133.9541269842</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>694451.9765205679</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>805579.5</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>759402.2859814564</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>811854.3125</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>804041.0625</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>791782.5625</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2872789.5</v>
-      </c>
-      <c r="Q14">
-        <v>10745659</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1616,43 +1616,43 @@
         <v>1133236.375</v>
       </c>
       <c r="E15">
+        <v>962945.8125</v>
+      </c>
+      <c r="F15">
         <v>962788.9375</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>774352.75</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>839101.5</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>849167.1875</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>866867.531111111</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>882855.5788277513</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>855553.3125</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>878834.7784454646</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>914593</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>886483.3125</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>887782.5625</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-1945707.375</v>
-      </c>
-      <c r="Q15">
-        <v>7369471</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1669,43 +1669,43 @@
         <v>1133940</v>
       </c>
       <c r="E16">
+        <v>962942.4375</v>
+      </c>
+      <c r="F16">
         <v>962788.1875</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>770662.625</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>796453.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>856303.0625</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>846387.5665952384</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>849109.9425445142</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>777147.75</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>791583.1583149504</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>803502.4375</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>791961.4375</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>792801.375</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2085881.125</v>
-      </c>
-      <c r="Q16">
-        <v>7310787.5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1722,43 +1722,43 @@
         <v>1134382.25</v>
       </c>
       <c r="E17">
+        <v>962939</v>
+      </c>
+      <c r="F17">
         <v>962786.75</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>737508.4375</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>741116</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>883223.4375</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>860504.4080714287</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>872774.735603758</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>765486.5625</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>819542.0310376986</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>772375.125</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>772213.875</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>753276.6875</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1437403.375</v>
-      </c>
-      <c r="Q17">
-        <v>7150720.5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1775,43 +1775,43 @@
         <v>1108786.5</v>
       </c>
       <c r="E18">
+        <v>962937.9375</v>
+      </c>
+      <c r="F18">
         <v>962787.875</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>627710</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>818266.875</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>777735.125</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>775883.9756825395</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>779454.8088151764</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>774951.0625</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>812889.8884850513</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>805285.5</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>814252.875</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>816158.0625</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1199493.5</v>
-      </c>
-      <c r="Q18">
-        <v>3847862.25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1828,43 +1828,43 @@
         <v>1120666.375</v>
       </c>
       <c r="E19">
+        <v>962936.8125</v>
+      </c>
+      <c r="F19">
         <v>962787.5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>534006.5625</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>839208.0625</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>921733.9375</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>914943.872</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>918000.3404683942</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>813719.875</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>858801.6379494116</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>864974.3125</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>829458.125</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>872679</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-4869808.5</v>
-      </c>
-      <c r="Q19">
-        <v>544997.625</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1881,43 +1881,43 @@
         <v>1180209.875</v>
       </c>
       <c r="E20">
+        <v>962936.875</v>
+      </c>
+      <c r="F20">
         <v>962787.3125</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>780232.875</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>860969.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>925090.9375</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>917359.5678571429</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>919277.0530309108</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>856604.75</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>871778.6249303562</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>866651.5625</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>895723.125</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>890832.625</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>4692949</v>
-      </c>
-      <c r="Q20">
-        <v>1765241.625</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1934,43 +1934,43 @@
         <v>1185161.75</v>
       </c>
       <c r="E21">
+        <v>962937.25</v>
+      </c>
+      <c r="F21">
         <v>962786.125</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>529248</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>849079.3125</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>840861.125</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>837536.7219404761</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>842351.8643017001</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>865343.875</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>831488.1121378717</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>893385.375</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>867359.0625</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>884830.6875</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4401482</v>
-      </c>
-      <c r="Q21">
-        <v>3131390</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1987,43 +1987,43 @@
         <v>1209640.375</v>
       </c>
       <c r="E22">
+        <v>962951.3125</v>
+      </c>
+      <c r="F22">
         <v>962787.0625</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>929307.1875</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>829429.375</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>758001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>759400.9237103175</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>756251.4457300263</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>847919.4375</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>778828.6752670999</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>834312.6875</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>848130.0625</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>848329.1875</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-392756.875</v>
-      </c>
-      <c r="Q22">
-        <v>3084461</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2040,43 +2040,43 @@
         <v>1195656</v>
       </c>
       <c r="E23">
+        <v>962966.8125</v>
+      </c>
+      <c r="F23">
         <v>962788.25</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>733939.9375</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>839631.25</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>816585.6875</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>833224.4338095239</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>820212.5249865989</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>817308.4375</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>878834.7784454646</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>870451.1875</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>847036.75</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>891679.75</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-1776328.25</v>
-      </c>
-      <c r="Q23">
-        <v>2891353.5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2093,43 +2093,43 @@
         <v>1234132.375</v>
       </c>
       <c r="E24">
+        <v>962960.4375</v>
+      </c>
+      <c r="F24">
         <v>962787.8125</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>814436.4375</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>702763</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>676462.25</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>727688.1952619047</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>683690.5647319045</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>679517.1875</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>772378.704716297</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>711565.9375</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>766982.25</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>745087.25</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>4464722</v>
-      </c>
-      <c r="Q24">
-        <v>2736911</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2146,43 +2146,43 @@
         <v>1251246.375</v>
       </c>
       <c r="E25">
+        <v>962949.625</v>
+      </c>
+      <c r="F25">
         <v>962787.9375</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1016744.625</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>796735.75</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>930397.5</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>926748.3446666666</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>926992.0478542953</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>783009</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>899824.4808781837</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>816888</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>881507.625</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>881653.75</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-3012039.75</v>
-      </c>
-      <c r="Q25">
-        <v>2589628.5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2199,43 +2199,43 @@
         <v>1262408.75</v>
       </c>
       <c r="E26">
+        <v>962943.6875</v>
+      </c>
+      <c r="F26">
         <v>962787.75</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>880709.4375</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>844683.5</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>843529.625</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>839290.38315873</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>841860.2586359341</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>823056.4375</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>804054.977597915</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>848036.875</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>854023.875</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>863214.25</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3977220.75</v>
-      </c>
-      <c r="Q26">
-        <v>521289.625</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2252,43 +2252,43 @@
         <v>1284597.125</v>
       </c>
       <c r="E27">
+        <v>962939.125</v>
+      </c>
+      <c r="F27">
         <v>962787.8125</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1129531.25</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>902821.5</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>914860.5</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>917128.4438333332</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>916907.0766579479</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>878893.25</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>899824.4808781837</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>890813.4375</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>926877.875</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>910176.6875</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>6822110</v>
-      </c>
-      <c r="Q27">
-        <v>-2084947.625</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2305,43 +2305,43 @@
         <v>1291120.5</v>
       </c>
       <c r="E28">
+        <v>962934.9375</v>
+      </c>
+      <c r="F28">
         <v>962787.75</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>748059.0625</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>825324.75</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>726408.125</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>748849.6008333334</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>746107.6409129272</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>813200.625</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>775592.6419661848</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>858605.4375</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>862341.875</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>854686.5625</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-2953319.25</v>
-      </c>
-      <c r="Q28">
-        <v>-2208239</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2358,43 +2358,43 @@
         <v>1300758.625</v>
       </c>
       <c r="E29">
+        <v>962931.0625</v>
+      </c>
+      <c r="F29">
         <v>962787.625</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>999422.1875</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>852026.4375</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>883223.4375</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>860504.4080714287</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>872774.735603758</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>828889.375</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>819542.0310376986</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>823332.625</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>874162.6875</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>870623.3125</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>4266069.5</v>
-      </c>
-      <c r="Q29">
-        <v>-1359948.125</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2411,43 +2411,43 @@
         <v>1292561</v>
       </c>
       <c r="E30">
+        <v>962929.6875</v>
+      </c>
+      <c r="F30">
         <v>962787.9375</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1028374.6875</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>881968.5</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>837969.0625</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>837229.0744404763</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>836987.69307371</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>863981.125</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>795016.9722263718</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>880585.625</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>915133.4375</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>897054</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2162860.75</v>
-      </c>
-      <c r="Q30">
-        <v>491834.8125</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2464,43 +2464,43 @@
         <v>1310865</v>
       </c>
       <c r="E31">
+        <v>962929.6875</v>
+      </c>
+      <c r="F31">
         <v>962788.3125</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>749028.6875</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>804932.4375</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>843529.625</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>839290.38315873</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>841860.2586359341</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>774583.375</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>804054.977597915</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>784298.125</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>828733.25</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>810293.875</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>387826.25</v>
-      </c>
-      <c r="Q31">
-        <v>2869260</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2517,43 +2517,43 @@
         <v>1307370.125</v>
       </c>
       <c r="E32">
+        <v>962949.5</v>
+      </c>
+      <c r="F32">
         <v>962787.625</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>907506.25</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>919889.5</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>816585.6875</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>833224.4338095239</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>820212.5249865989</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>940448.3125</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>878834.7784454646</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>970324.3125</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>986288.0625</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>962011.75</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>9592442</v>
-      </c>
-      <c r="Q32">
-        <v>4939220</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2570,43 +2570,43 @@
         <v>1310645</v>
       </c>
       <c r="E33">
+        <v>962982.75</v>
+      </c>
+      <c r="F33">
         <v>962788.0625</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>800286.6875</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>884583.625</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>840861.125</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>837536.7219404761</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>842351.8643017001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>892581.75</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>831488.1121378717</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>870638.75</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>931029.1875</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>935715.8125</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-24872.994140625</v>
-      </c>
-      <c r="Q33">
-        <v>6798816.5</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2623,43 +2623,43 @@
         <v>1346747.375</v>
       </c>
       <c r="E34">
+        <v>962998.375</v>
+      </c>
+      <c r="F34">
         <v>962787.6875</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>703155.6875</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>909424.0625</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>803041.6875</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>801388.8376468257</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>803712.0131875655</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>896768.8125</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>774889.33942124</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>866303.0625</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>945005.375</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>952987.1875</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1211329</v>
-      </c>
-      <c r="Q34">
-        <v>7670499.5</v>
       </c>
     </row>
   </sheetData>
@@ -2726,33 +2726,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>24148298758.93685</v>
+        <v>24148211312.61955</v>
       </c>
       <c r="C3">
-        <v>155397.2289294016</v>
+        <v>155396.9475653224</v>
       </c>
       <c r="D3">
-        <v>0.03107671001636613</v>
+        <v>0.0310763164757913</v>
       </c>
       <c r="E3">
-        <v>84534.60416666667</v>
+        <v>84534.08072916667</v>
       </c>
       <c r="F3">
-        <v>0.1233288479419328</v>
+        <v>0.1233274959816617</v>
       </c>
       <c r="G3">
-        <v>38890.484375</v>
+        <v>38887.1875</v>
       </c>
       <c r="H3">
-        <v>0.08562685710894855</v>
+        <v>0.08562117270522679</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>24148202375.75903</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>27938719019.87923</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>31875202543.52507</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>32867509020.29419</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>35535018491.17491</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>37359537782.07456</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>35849426811.12109</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>37552677570.98209</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>40659415576.45174</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>35332860234.36401</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>34586459147.59245</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>105950089364.8027</v>
@@ -3089,43 +3089,43 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3142,7 +3142,7 @@
         <v>533098.5</v>
       </c>
       <c r="E2">
-        <v>492764.03125</v>
+        <v>492765.78125</v>
       </c>
       <c r="F2">
         <v>492765.3125</v>
@@ -3195,7 +3195,7 @@
         <v>499622.6875</v>
       </c>
       <c r="E3">
-        <v>492765.3125</v>
+        <v>492765.9375</v>
       </c>
       <c r="F3">
         <v>492766.28125</v>
@@ -3248,7 +3248,7 @@
         <v>514574.4375</v>
       </c>
       <c r="E4">
-        <v>492768.34375</v>
+        <v>492766.4375</v>
       </c>
       <c r="F4">
         <v>492764.59375</v>
@@ -3301,7 +3301,7 @@
         <v>468078.65625</v>
       </c>
       <c r="E5">
-        <v>492769.28125</v>
+        <v>492766.78125</v>
       </c>
       <c r="F5">
         <v>492768.28125</v>
@@ -3354,7 +3354,7 @@
         <v>468221.34375</v>
       </c>
       <c r="E6">
-        <v>492767.59375</v>
+        <v>492767.28125</v>
       </c>
       <c r="F6">
         <v>492771.25</v>
@@ -3407,7 +3407,7 @@
         <v>496311.96875</v>
       </c>
       <c r="E7">
-        <v>492766.09375</v>
+        <v>492767.375</v>
       </c>
       <c r="F7">
         <v>492771.21875</v>
@@ -3460,7 +3460,7 @@
         <v>531619.5625</v>
       </c>
       <c r="E8">
-        <v>492765.375</v>
+        <v>492767.125</v>
       </c>
       <c r="F8">
         <v>492769.53125</v>
@@ -3513,7 +3513,7 @@
         <v>549413.5625</v>
       </c>
       <c r="E9">
-        <v>492765.96875</v>
+        <v>492766.84375</v>
       </c>
       <c r="F9">
         <v>492766.5625</v>
@@ -3566,7 +3566,7 @@
         <v>556402.8125</v>
       </c>
       <c r="E10">
-        <v>492770.1875</v>
+        <v>492767.03125</v>
       </c>
       <c r="F10">
         <v>492765.25</v>
@@ -3619,7 +3619,7 @@
         <v>534461.5</v>
       </c>
       <c r="E11">
-        <v>492773.40625</v>
+        <v>492767.3125</v>
       </c>
       <c r="F11">
         <v>492768.78125</v>
@@ -3672,7 +3672,7 @@
         <v>511865.8125</v>
       </c>
       <c r="E12">
-        <v>492772.34375</v>
+        <v>492767.5</v>
       </c>
       <c r="F12">
         <v>492771.625</v>
@@ -3725,7 +3725,7 @@
         <v>567172.125</v>
       </c>
       <c r="E13">
-        <v>492771.5</v>
+        <v>492767.8125</v>
       </c>
       <c r="F13">
         <v>492771.59375</v>
@@ -3778,7 +3778,7 @@
         <v>567809.75</v>
       </c>
       <c r="E14">
-        <v>492771.625</v>
+        <v>492768.03125</v>
       </c>
       <c r="F14">
         <v>492770.625</v>
@@ -3831,7 +3831,7 @@
         <v>587717.375</v>
       </c>
       <c r="E15">
-        <v>492771.6875</v>
+        <v>492768.3125</v>
       </c>
       <c r="F15">
         <v>492767.84375</v>
@@ -3884,7 +3884,7 @@
         <v>591529.625</v>
       </c>
       <c r="E16">
-        <v>492771.4375</v>
+        <v>492768.6875</v>
       </c>
       <c r="F16">
         <v>492767.28125</v>
@@ -3937,7 +3937,7 @@
         <v>560641.6875</v>
       </c>
       <c r="E17">
-        <v>492771.0625</v>
+        <v>492768.75</v>
       </c>
       <c r="F17">
         <v>492767.15625</v>
@@ -3990,7 +3990,7 @@
         <v>548846.3125</v>
       </c>
       <c r="E18">
-        <v>492771.3125</v>
+        <v>492768.84375</v>
       </c>
       <c r="F18">
         <v>492769.0625</v>
@@ -4043,7 +4043,7 @@
         <v>572977.875</v>
       </c>
       <c r="E19">
-        <v>492771.59375</v>
+        <v>492769</v>
       </c>
       <c r="F19">
         <v>492769.8125</v>
@@ -4096,7 +4096,7 @@
         <v>608891.9375</v>
       </c>
       <c r="E20">
-        <v>492771.875</v>
+        <v>492768.71875</v>
       </c>
       <c r="F20">
         <v>492765.375</v>
@@ -4149,7 +4149,7 @@
         <v>633439.8125</v>
       </c>
       <c r="E21">
-        <v>492772.21875</v>
+        <v>492768.21875</v>
       </c>
       <c r="F21">
         <v>492767</v>
@@ -4202,7 +4202,7 @@
         <v>659208.3125</v>
       </c>
       <c r="E22">
-        <v>492769.90625</v>
+        <v>492767.6875</v>
       </c>
       <c r="F22">
         <v>492768.53125</v>
@@ -4255,7 +4255,7 @@
         <v>616160.1875</v>
       </c>
       <c r="E23">
-        <v>492767.375</v>
+        <v>492767.28125</v>
       </c>
       <c r="F23">
         <v>492769.4375</v>
@@ -4308,7 +4308,7 @@
         <v>647682.8125</v>
       </c>
       <c r="E24">
-        <v>492770.59375</v>
+        <v>492767.5</v>
       </c>
       <c r="F24">
         <v>492770.34375</v>
@@ -4361,7 +4361,7 @@
         <v>655487.5625</v>
       </c>
       <c r="E25">
-        <v>492774.90625</v>
+        <v>492768.09375</v>
       </c>
       <c r="F25">
         <v>492770.40625</v>
@@ -4414,7 +4414,7 @@
         <v>669360.1875</v>
       </c>
       <c r="E26">
-        <v>492802.65625</v>
+        <v>492767.875</v>
       </c>
       <c r="F26">
         <v>492770.1875</v>
@@ -4467,7 +4467,7 @@
         <v>689715.375</v>
       </c>
       <c r="E27">
-        <v>492836.875</v>
+        <v>492767.375</v>
       </c>
       <c r="F27">
         <v>492770.4375</v>
@@ -4520,7 +4520,7 @@
         <v>675465.0625</v>
       </c>
       <c r="E28">
-        <v>492846.65625</v>
+        <v>492766.875</v>
       </c>
       <c r="F28">
         <v>492770.6875</v>
@@ -4573,7 +4573,7 @@
         <v>665633.25</v>
       </c>
       <c r="E29">
-        <v>492846.84375</v>
+        <v>492766.21875</v>
       </c>
       <c r="F29">
         <v>492772.625</v>
@@ -4626,7 +4626,7 @@
         <v>672133.5625</v>
       </c>
       <c r="E30">
-        <v>492848.53125</v>
+        <v>492766.25</v>
       </c>
       <c r="F30">
         <v>492771.03125</v>
@@ -4679,7 +4679,7 @@
         <v>680005.75</v>
       </c>
       <c r="E31">
-        <v>492851.03125</v>
+        <v>492766.71875</v>
       </c>
       <c r="F31">
         <v>492794.28125</v>
@@ -4732,7 +4732,7 @@
         <v>679015</v>
       </c>
       <c r="E32">
-        <v>492851.53125</v>
+        <v>492766.96875</v>
       </c>
       <c r="F32">
         <v>492794.21875</v>
@@ -4785,7 +4785,7 @@
         <v>670211.3125</v>
       </c>
       <c r="E33">
-        <v>492850.5625</v>
+        <v>492766.96875</v>
       </c>
       <c r="F33">
         <v>492796.375</v>
@@ -4838,7 +4838,7 @@
         <v>700905.625</v>
       </c>
       <c r="E34">
-        <v>492850.15625</v>
+        <v>492767.09375</v>
       </c>
       <c r="F34">
         <v>492793.96875</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>44129447070.33366</v>
@@ -4967,33 +4967,33 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>44129246784.51807</v>
+        <v>44130295089.20117</v>
       </c>
       <c r="C4">
-        <v>210069.6236596764</v>
+        <v>210072.118781149</v>
       </c>
       <c r="D4">
-        <v>0.03893863041604503</v>
+        <v>0.03894033108928954</v>
       </c>
       <c r="E4">
-        <v>98777.375</v>
+        <v>98780.51041666667</v>
       </c>
       <c r="F4">
-        <v>0.1265463815225544</v>
+        <v>0.1265506435750784</v>
       </c>
       <c r="G4">
-        <v>49623.109375</v>
+        <v>49611.859375</v>
       </c>
       <c r="H4">
-        <v>0.1021451531007265</v>
+        <v>0.1021177230137936</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>47965428777.16675</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>56963022776.9546</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>56253828768.24152</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>57565761499.88143</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>58064156655.3146</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>52888813358.93335</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>57355554922.89957</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>57710614356.81747</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>61124338806.04541</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>63939352986.06836</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>318728199408.8942</v>
@@ -5304,43 +5304,43 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5360,7 +5360,7 @@
         <v>470020.25</v>
       </c>
       <c r="F2">
-        <v>470024.15625</v>
+        <v>470019.8125</v>
       </c>
       <c r="G2">
         <v>484225.15625</v>
@@ -5413,7 +5413,7 @@
         <v>470023.6875</v>
       </c>
       <c r="F3">
-        <v>470023.6875</v>
+        <v>470019.09375</v>
       </c>
       <c r="G3">
         <v>463763.25</v>
@@ -5466,7 +5466,7 @@
         <v>470023</v>
       </c>
       <c r="F4">
-        <v>470022.5</v>
+        <v>470017.25</v>
       </c>
       <c r="G4">
         <v>438027.71875</v>
@@ -5519,7 +5519,7 @@
         <v>470020.34375</v>
       </c>
       <c r="F5">
-        <v>470021.90625</v>
+        <v>470017.3125</v>
       </c>
       <c r="G5">
         <v>438170.15625</v>
@@ -5572,7 +5572,7 @@
         <v>470026.21875</v>
       </c>
       <c r="F6">
-        <v>470022.5625</v>
+        <v>470020.875</v>
       </c>
       <c r="G6">
         <v>432626.8125</v>
@@ -5625,7 +5625,7 @@
         <v>470024.0625</v>
       </c>
       <c r="F7">
-        <v>470024.84375</v>
+        <v>470022.1875</v>
       </c>
       <c r="G7">
         <v>380246.8125</v>
@@ -5678,7 +5678,7 @@
         <v>470028.25</v>
       </c>
       <c r="F8">
-        <v>470031.375</v>
+        <v>470020.09375</v>
       </c>
       <c r="G8">
         <v>431977.28125</v>
@@ -5731,7 +5731,7 @@
         <v>470025.21875</v>
       </c>
       <c r="F9">
-        <v>470034.5</v>
+        <v>470018.90625</v>
       </c>
       <c r="G9">
         <v>531908.3125</v>
@@ -5784,7 +5784,7 @@
         <v>470022.84375</v>
       </c>
       <c r="F10">
-        <v>470028.78125</v>
+        <v>470020.1875</v>
       </c>
       <c r="G10">
         <v>509805.375</v>
@@ -5837,7 +5837,7 @@
         <v>470023.0625</v>
       </c>
       <c r="F11">
-        <v>470027.90625</v>
+        <v>470021.84375</v>
       </c>
       <c r="G11">
         <v>437448.78125</v>
@@ -5890,7 +5890,7 @@
         <v>470027.1875</v>
       </c>
       <c r="F12">
-        <v>470043.53125</v>
+        <v>470024.125</v>
       </c>
       <c r="G12">
         <v>429224.25</v>
@@ -5943,7 +5943,7 @@
         <v>470027.75</v>
       </c>
       <c r="F13">
-        <v>470054.125</v>
+        <v>470025.5625</v>
       </c>
       <c r="G13">
         <v>411436.75</v>
@@ -5996,7 +5996,7 @@
         <v>470026.0625</v>
       </c>
       <c r="F14">
-        <v>470040.875</v>
+        <v>470023.03125</v>
       </c>
       <c r="G14">
         <v>409083.59375</v>
@@ -6049,7 +6049,7 @@
         <v>470027.78125</v>
       </c>
       <c r="F15">
-        <v>470029.65625</v>
+        <v>470020.6875</v>
       </c>
       <c r="G15">
         <v>374586.59375</v>
@@ -6102,7 +6102,7 @@
         <v>470028.34375</v>
       </c>
       <c r="F16">
-        <v>470037.90625</v>
+        <v>470018.4375</v>
       </c>
       <c r="G16">
         <v>392776.03125</v>
@@ -6155,7 +6155,7 @@
         <v>470023.25</v>
       </c>
       <c r="F17">
-        <v>470047.09375</v>
+        <v>470016.375</v>
       </c>
       <c r="G17">
         <v>407528.3125</v>
@@ -6208,7 +6208,7 @@
         <v>470025.1875</v>
       </c>
       <c r="F18">
-        <v>470095.59375</v>
+        <v>470018.375</v>
       </c>
       <c r="G18">
         <v>366804.5</v>
@@ -6261,7 +6261,7 @@
         <v>470025.5</v>
       </c>
       <c r="F19">
-        <v>470144.03125</v>
+        <v>470020.34375</v>
       </c>
       <c r="G19">
         <v>354177.5</v>
@@ -6314,7 +6314,7 @@
         <v>470024.21875</v>
       </c>
       <c r="F20">
-        <v>470142.875</v>
+        <v>470032.4375</v>
       </c>
       <c r="G20">
         <v>390346.21875</v>
@@ -6367,7 +6367,7 @@
         <v>470026.03125</v>
       </c>
       <c r="F21">
-        <v>470140.75</v>
+        <v>470044.71875</v>
       </c>
       <c r="G21">
         <v>300990.21875</v>
@@ -6420,7 +6420,7 @@
         <v>470026.9375</v>
       </c>
       <c r="F22">
-        <v>470139.875</v>
+        <v>470046.15625</v>
       </c>
       <c r="G22">
         <v>451983.90625</v>
@@ -6473,7 +6473,7 @@
         <v>470025.5</v>
       </c>
       <c r="F23">
-        <v>470139.21875</v>
+        <v>470046.5</v>
       </c>
       <c r="G23">
         <v>410686.90625</v>
@@ -6526,7 +6526,7 @@
         <v>470026.75</v>
       </c>
       <c r="F24">
-        <v>470142.25</v>
+        <v>470046.28125</v>
       </c>
       <c r="G24">
         <v>420187.59375</v>
@@ -6579,7 +6579,7 @@
         <v>470028.09375</v>
       </c>
       <c r="F25">
-        <v>470145.875</v>
+        <v>470046.125</v>
       </c>
       <c r="G25">
         <v>519262.9375</v>
@@ -6632,7 +6632,7 @@
         <v>470026.71875</v>
       </c>
       <c r="F26">
-        <v>470146.59375</v>
+        <v>470045.84375</v>
       </c>
       <c r="G26">
         <v>438492.28125</v>
@@ -6685,7 +6685,7 @@
         <v>470025</v>
       </c>
       <c r="F27">
-        <v>470146.46875</v>
+        <v>470045.40625</v>
       </c>
       <c r="G27">
         <v>580161.8125</v>
@@ -6738,7 +6738,7 @@
         <v>470026.5625</v>
       </c>
       <c r="F28">
-        <v>470151.875</v>
+        <v>470045.9375</v>
       </c>
       <c r="G28">
         <v>431684.5625</v>
@@ -6791,7 +6791,7 @@
         <v>470024.75</v>
       </c>
       <c r="F29">
-        <v>470157.96875</v>
+        <v>470046.625</v>
       </c>
       <c r="G29">
         <v>469235.21875</v>
@@ -6844,7 +6844,7 @@
         <v>470025.46875</v>
       </c>
       <c r="F30">
-        <v>470158.84375</v>
+        <v>470046.28125</v>
       </c>
       <c r="G30">
         <v>492073.6875</v>
@@ -6897,7 +6897,7 @@
         <v>470026.25</v>
       </c>
       <c r="F31">
-        <v>470157.34375</v>
+        <v>470045.46875</v>
       </c>
       <c r="G31">
         <v>439789.9375</v>
@@ -6950,7 +6950,7 @@
         <v>470025.78125</v>
       </c>
       <c r="F32">
-        <v>470151.96875</v>
+        <v>470044.5</v>
       </c>
       <c r="G32">
         <v>444964.15625</v>
@@ -7003,7 +7003,7 @@
         <v>470027.125</v>
       </c>
       <c r="F33">
-        <v>470144.78125</v>
+        <v>470043.375</v>
       </c>
       <c r="G33">
         <v>391684.4375</v>
@@ -7056,7 +7056,7 @@
         <v>470051.59375</v>
       </c>
       <c r="F34">
-        <v>470141.8125</v>
+        <v>470042.90625</v>
       </c>
       <c r="G34">
         <v>331816.65625</v>
